--- a/data_raw/ids_listening_tests.xlsx
+++ b/data_raw/ids_listening_tests.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2561" uniqueCount="1193">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -1265,6 +1265,15 @@
     <t xml:space="preserve">PROMPT</t>
   </si>
   <si>
+    <t xml:space="preserve">AMIQ_0001_I_0032_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willkommen beim visuellen Puzzletest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to the Visual Puzzles Test</t>
+  </si>
+  <si>
     <t xml:space="preserve">AMPT_0001_I_0001_1</t>
   </si>
   <si>
@@ -3663,7 +3672,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -3732,13 +3741,6 @@
     <font>
       <sz val="12"/>
       <name val="FreeSans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3900,11 +3902,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3973,23 +3975,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4001,15 +3999,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4017,15 +4015,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4041,23 +4039,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4165,7 +4163,7 @@
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.25"/>
@@ -5250,7 +5248,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.87"/>
@@ -5260,7 +5258,7 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -5272,13 +5270,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>825</v>
+        <v>827</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>828</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>6</v>
@@ -5286,21 +5284,21 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>31</v>
@@ -5314,13 +5312,13 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>403</v>
@@ -5328,97 +5326,97 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>837</v>
-      </c>
-      <c r="B7" s="23" t="s">
+        <v>840</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>82</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>839</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>840</v>
+        <v>842</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>843</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>65</v>
@@ -5426,13 +5424,13 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>341</v>
@@ -5440,27 +5438,27 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>13</v>
@@ -5468,7 +5466,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>99</v>
@@ -5482,41 +5480,41 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>77</v>
@@ -5524,7 +5522,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>75</v>
@@ -5558,7 +5556,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="56.5"/>
@@ -5585,41 +5583,41 @@
     </row>
     <row r="2" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>878</v>
+        <v>880</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>881</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>31</v>
@@ -5631,199 +5629,199 @@
         <v>29</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>403</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>892</v>
-      </c>
-      <c r="B7" s="23" t="s">
+        <v>895</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="22" t="s">
         <v>82</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>839</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>840</v>
+        <v>842</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>843</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>99</v>
@@ -5840,245 +5838,245 @@
     </row>
     <row r="17" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>358</v>
@@ -6090,12 +6088,12 @@
         <v>77</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>75</v>
@@ -6107,199 +6105,199 @@
         <v>73</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>1006</v>
+        <v>1008</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>1009</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>1011</v>
+        <v>1013</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>1014</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>1016</v>
+        <v>1018</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>1019</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>1021</v>
+        <v>1023</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>1024</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>1025</v>
+        <v>1027</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>1028</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>1029</v>
+        <v>1031</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>1032</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D42" s="36" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D42" s="35" t="s">
         <v>374</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D43" s="36" t="s">
-        <v>1038</v>
+        <v>1040</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>1041</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>365</v>
@@ -6307,7 +6305,7 @@
       <c r="C44" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="35" t="s">
         <v>367</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -6316,7 +6314,7 @@
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>369</v>
@@ -6324,7 +6322,7 @@
       <c r="C45" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="D45" s="36" t="s">
+      <c r="D45" s="35" t="s">
         <v>371</v>
       </c>
       <c r="E45" s="3" t="s">
@@ -6353,7 +6351,7 @@
       <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.12"/>
@@ -6376,13 +6374,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>6</v>
@@ -6390,97 +6388,97 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="D9" s="0" t="s">
         <v>381</v>
@@ -6488,13 +6486,13 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>403</v>
@@ -6502,21 +6500,21 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>67</v>
@@ -6530,13 +6528,13 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>385</v>
@@ -6544,10 +6542,10 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>70</v>
@@ -6558,52 +6556,52 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>82</v>
@@ -6614,7 +6612,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>108</v>
@@ -6628,27 +6626,27 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>102</v>
@@ -6656,7 +6654,7 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>31</v>
@@ -6670,21 +6668,21 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>35</v>
@@ -6698,63 +6696,63 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>347</v>
@@ -6768,7 +6766,7 @@
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>15</v>
@@ -6782,7 +6780,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>353</v>
@@ -6796,7 +6794,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>75</v>
@@ -6810,7 +6808,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>358</v>
@@ -6824,7 +6822,7 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>361</v>
@@ -6838,7 +6836,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>365</v>
@@ -6846,14 +6844,14 @@
       <c r="C35" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="D35" s="36" t="s">
+      <c r="D35" s="35" t="s">
         <v>367</v>
       </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>369</v>
@@ -6861,20 +6859,20 @@
       <c r="C36" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="D36" s="36" t="s">
+      <c r="D36" s="35" t="s">
         <v>371</v>
       </c>
       <c r="E36" s="3"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>374</v>
@@ -6902,443 +6900,443 @@
       <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="39" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40" t="s">
+      <c r="A2" s="38" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="41" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42" t="s">
-        <v>1091</v>
+      <c r="A3" s="40" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="39" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="38" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B4" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40" t="s">
-        <v>1093</v>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="41" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>1095</v>
-      </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42" t="s">
-        <v>1096</v>
+      <c r="A5" s="40" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="39" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40" t="s">
-        <v>1099</v>
+      <c r="A6" s="38" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B6" s="39" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42" t="s">
-        <v>1102</v>
+      <c r="A7" s="40" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="39" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40" t="s">
-        <v>1105</v>
+      <c r="A8" s="38" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="41" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42" t="s">
-        <v>1108</v>
+      <c r="A9" s="40" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40" t="s">
-        <v>1111</v>
+      <c r="A10" s="38" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="299.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="41" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42" t="s">
-        <v>1114</v>
+      <c r="A11" s="40" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40" t="s">
-        <v>1117</v>
+      <c r="A12" s="38" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="41" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42" t="s">
-        <v>1120</v>
+      <c r="A13" s="40" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39" t="s">
-        <v>1121</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40" t="s">
-        <v>1123</v>
+      <c r="A14" s="38" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="41" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42" t="s">
-        <v>1126</v>
+      <c r="A15" s="40" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40" t="s">
-        <v>1129</v>
+      <c r="A16" s="38" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="41" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42" t="s">
-        <v>1132</v>
+      <c r="A17" s="40" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40" t="s">
-        <v>1135</v>
+      <c r="A18" s="38" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="41" t="s">
-        <v>1136</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42" t="s">
-        <v>1138</v>
+      <c r="A19" s="40" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40" t="s">
-        <v>1141</v>
+      <c r="A20" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="41" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42" t="s">
-        <v>1144</v>
+      <c r="A21" s="40" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B22" s="40" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40" t="s">
-        <v>1147</v>
+      <c r="A22" s="38" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="41" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42" t="s">
-        <v>1150</v>
+      <c r="A23" s="40" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="39" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B24" s="40" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40" t="s">
-        <v>1153</v>
+      <c r="A24" s="38" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="41" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42" t="s">
-        <v>1156</v>
+      <c r="A25" s="40" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="39" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40" t="s">
-        <v>1159</v>
+      <c r="A26" s="38" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="41" t="s">
-        <v>1160</v>
-      </c>
-      <c r="B27" s="42" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42" t="s">
-        <v>1162</v>
+      <c r="A27" s="40" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="39" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40" t="s">
-        <v>1165</v>
+      <c r="A28" s="38" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42" t="s">
-        <v>1168</v>
+      <c r="A29" s="40" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="39" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B30" s="40" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40" t="s">
-        <v>1171</v>
+      <c r="A30" s="38" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="41" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42" t="s">
-        <v>1174</v>
+      <c r="A31" s="40" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="39" t="s">
-        <v>1175</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40" t="s">
-        <v>1177</v>
+      <c r="A32" s="38" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="41" t="s">
-        <v>1178</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="42" t="s">
-        <v>1180</v>
+      <c r="A33" s="40" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="39" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B34" s="40" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40" t="s">
-        <v>1183</v>
+      <c r="A34" s="38" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="41" t="s">
-        <v>1184</v>
-      </c>
-      <c r="B35" s="42" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42" t="s">
-        <v>1186</v>
+      <c r="A35" s="40" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="39" t="s">
-        <v>1187</v>
-      </c>
-      <c r="B36" s="40" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40" t="s">
-        <v>1189</v>
+      <c r="A36" s="38" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39" t="s">
+        <v>1192</v>
       </c>
     </row>
   </sheetData>
@@ -7363,9 +7361,9 @@
       <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="37.61"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7440,8 +7438,8 @@
   </sheetPr>
   <dimension ref="A1:E1032"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7908,11 +7906,19 @@
       </c>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="1"/>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8" t="s">
+        <v>404</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14930,302 +14936,302 @@
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="54.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="54.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>405</v>
+        <v>407</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>408</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>409</v>
+        <v>411</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>412</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>413</v>
+        <v>415</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>416</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>417</v>
+        <v>419</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>420</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>421</v>
+        <v>423</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>424</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>425</v>
+        <v>427</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>428</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>429</v>
+        <v>431</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>432</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>433</v>
+        <v>435</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>436</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>437</v>
+        <v>439</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>440</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>441</v>
+        <v>443</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>444</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>445</v>
+        <v>447</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>448</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>449</v>
+        <v>451</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>452</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>453</v>
+        <v>455</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>456</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>457</v>
+        <v>459</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>460</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>460</v>
+        <v>462</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>463</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>464</v>
+        <v>466</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>467</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B18" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="B19" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>473</v>
+        <v>475</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>476</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -15250,7 +15256,7 @@
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="76.87"/>
@@ -15267,7 +15273,7 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -15276,147 +15282,147 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>480</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>481</v>
+        <v>483</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>484</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>504</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>505</v>
+        <v>507</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>508</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>67</v>
@@ -15425,96 +15431,96 @@
         <v>66</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>516</v>
+        <v>518</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>519</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>70</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>531</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>457</v>
+        <v>534</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>460</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>108</v>
@@ -15523,54 +15529,54 @@
         <v>107</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>534</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>535</v>
+        <v>537</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>538</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>542</v>
-      </c>
-      <c r="B22" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>35</v>
@@ -15579,7 +15585,7 @@
         <v>34</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -15604,3408 +15610,3408 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="56.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="28" width="24.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="27" width="24.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+    <row r="1" s="18" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="F2" s="28"/>
+        <v>552</v>
+      </c>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>551</v>
+        <v>553</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>554</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="F3" s="28"/>
+        <v>557</v>
+      </c>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>556</v>
+        <v>558</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>559</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F4" s="28"/>
+        <v>562</v>
+      </c>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="F5" s="28"/>
+        <v>567</v>
+      </c>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>566</v>
+        <v>568</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>569</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>403</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F6" s="28"/>
+        <v>571</v>
+      </c>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="F7" s="28"/>
+        <v>450</v>
+      </c>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>571</v>
+        <v>573</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>574</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>393</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>323</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="F9" s="28"/>
+        <v>581</v>
+      </c>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="F10" s="28"/>
+        <v>586</v>
+      </c>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="true" ht="157.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>591</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>592</v>
+        <v>593</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>594</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>595</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>594</v>
-      </c>
-      <c r="F12" s="28"/>
+        <v>596</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>341</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>569</v>
+        <v>601</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>572</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="BZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="CZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="DZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ED13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ER13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ES13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ET13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="EZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="FZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="GZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="HZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ID13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="II13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="IZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="JZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="KZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="LZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ME13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ML13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="MZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ND13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="NZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ON13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="OZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="PZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="QZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="RZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ST13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="SZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="TZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="US13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="UZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="VZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="WZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="XZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="YZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ZZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AAZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ABZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ACZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ADZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AED13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AER13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AES13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AET13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AEZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AFZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AGZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AHZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AID13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AII13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AIZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AJZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AKZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALE13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALK13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALL13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALM13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALN13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALO13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALP13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALQ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALR13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALS13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALT13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALU13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALV13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALW13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALX13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALY13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="ALZ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AMA13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AMB13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AMC13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AMD13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AME13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AMF13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AMG13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AMH13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AMI13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="AMJ13" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>457</v>
+        <v>602</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>460</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="F14" s="28"/>
+        <v>461</v>
+      </c>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>602</v>
+        <v>604</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>605</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>566</v>
+        <v>610</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>569</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="F17" s="28"/>
+        <v>617</v>
+      </c>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="F18" s="28"/>
+        <v>622</v>
+      </c>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="B19" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -19015,63 +19021,63 @@
         <v>29</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="F19" s="28"/>
+        <v>546</v>
+      </c>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>623</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>624</v>
+        <v>626</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>627</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>625</v>
-      </c>
-      <c r="F20" s="28"/>
+        <v>628</v>
+      </c>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>627</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>624</v>
-      </c>
       <c r="E21" s="0" t="s">
-        <v>629</v>
-      </c>
-      <c r="F21" s="28"/>
+        <v>632</v>
+      </c>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>633</v>
+        <v>635</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>636</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="F22" s="28"/>
+        <v>637</v>
+      </c>
+      <c r="F22" s="27"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -19095,7 +19101,7 @@
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.9921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.984375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="65.13"/>
@@ -19117,13 +19123,13 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>636</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>637</v>
+        <v>638</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>640</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>6</v>
@@ -19131,13 +19137,13 @@
     </row>
     <row r="3" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>639</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>640</v>
+        <v>641</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>643</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>303</v>
@@ -19145,13 +19151,13 @@
     </row>
     <row r="4" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>642</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>643</v>
+        <v>644</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>645</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>646</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>307</v>
@@ -19159,139 +19165,139 @@
     </row>
     <row r="5" customFormat="false" ht="51.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>645</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>646</v>
+        <v>647</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>648</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>649</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>648</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>649</v>
+        <v>650</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>652</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>652</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>653</v>
+        <v>654</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>655</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>656</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="126" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>655</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>656</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>657</v>
+        <v>658</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>659</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>660</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>661</v>
+        <v>662</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>663</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>664</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="78.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>664</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>665</v>
+        <v>666</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>668</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>668</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>669</v>
+        <v>670</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>671</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>672</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>672</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>673</v>
+        <v>674</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>676</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>676</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>677</v>
+        <v>678</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>679</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>680</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>680</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>681</v>
+        <v>682</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>683</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>684</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>403</v>
@@ -19299,41 +19305,41 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>683</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>684</v>
+        <v>685</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>686</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>687</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>687</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>688</v>
+        <v>689</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>690</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>691</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="110.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>691</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>692</v>
+        <v>693</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>694</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>695</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>389</v>
@@ -19341,27 +19347,27 @@
     </row>
     <row r="18" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>694</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>695</v>
+        <v>696</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>698</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>698</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>699</v>
+        <v>700</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>701</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>702</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>102</v>
@@ -19369,13 +19375,13 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>701</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>702</v>
+        <v>703</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>704</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>705</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>73</v>
@@ -19409,10 +19415,10 @@
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="55.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="55.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="42.13"/>
   </cols>
   <sheetData>
@@ -19420,7 +19426,7 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -19432,119 +19438,119 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>703</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>704</v>
+        <v>706</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>707</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>707</v>
+        <v>709</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>710</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>709</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>710</v>
+        <v>712</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>713</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>713</v>
+        <v>715</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>716</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>715</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>716</v>
+        <v>718</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>719</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>719</v>
+        <v>721</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>722</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>721</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>722</v>
+        <v>724</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>725</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>725</v>
+        <v>727</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>728</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>727</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>728</v>
+        <v>730</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>731</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>730</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>425</v>
+        <v>733</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>428</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>731</v>
-      </c>
-      <c r="B12" s="28" t="s">
+        <v>734</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>67</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -19553,21 +19559,21 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>732</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>733</v>
+        <v>735</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>736</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>735</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>520</v>
+        <v>738</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>523</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>70</v>
@@ -19575,43 +19581,43 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>736</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>523</v>
+        <v>739</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>526</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>738</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>429</v>
+        <v>741</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>432</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>739</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>740</v>
+        <v>742</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>743</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>457</v>
+        <v>745</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>460</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>82</v>
@@ -19619,9 +19625,9 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>743</v>
-      </c>
-      <c r="B19" s="28" t="s">
+        <v>746</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="0" t="s">
@@ -19630,31 +19636,31 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>744</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>745</v>
+        <v>747</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>748</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>747</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>748</v>
+        <v>750</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>751</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>750</v>
-      </c>
-      <c r="B22" s="34" t="s">
+        <v>753</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>31</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -19663,20 +19669,20 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>751</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>752</v>
+        <v>754</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>755</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>754</v>
-      </c>
-      <c r="B24" s="28" t="s">
+        <v>757</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="0" t="s">
@@ -19685,24 +19691,24 @@
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>755</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>756</v>
+        <v>758</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>759</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>759</v>
+        <v>761</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>762</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -19727,7 +19733,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.13"/>
@@ -19738,7 +19744,7 @@
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -19750,13 +19756,13 @@
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>763</v>
+        <v>765</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>766</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>6</v>
@@ -19764,167 +19770,167 @@
     </row>
     <row r="3" customFormat="false" ht="178.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>764</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>765</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>766</v>
+        <v>767</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>769</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>768</v>
-      </c>
-      <c r="B4" s="23" t="s">
+        <v>771</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>82</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>770</v>
-      </c>
-      <c r="B5" s="23" t="s">
+        <v>773</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>107</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="63" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>772</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>773</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>774</v>
+        <v>775</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>777</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>777</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>778</v>
+        <v>780</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>781</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>781</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>782</v>
+        <v>784</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>785</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>784</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>785</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>786</v>
+        <v>787</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>789</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>789</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>790</v>
+        <v>792</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>793</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>13</v>
@@ -19932,21 +19938,21 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>15</v>
@@ -19960,27 +19966,27 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>813</v>
+        <v>815</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>816</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="D18" s="0" t="s">
         <v>374</v>
@@ -19988,13 +19994,13 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>102</v>
@@ -20002,7 +20008,7 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>365</v>
@@ -20010,14 +20016,14 @@
       <c r="C20" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="35" t="s">
         <v>367</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>369</v>
@@ -20025,7 +20031,7 @@
       <c r="C21" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="35" t="s">
         <v>371</v>
       </c>
       <c r="E21" s="3"/>

--- a/data_raw/ids_listening_tests.xlsx
+++ b/data_raw/ids_listening_tests.xlsx
@@ -1268,10 +1268,10 @@
     <t xml:space="preserve">AMIQ_0001_I_0032_1</t>
   </si>
   <si>
-    <t xml:space="preserve">Willkommen beim visuellen Puzzletest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Welcome to the Visual Puzzles Test</t>
+    <t xml:space="preserve">Willkommen beim visuellen Puzzletest!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to the Visual Puzzles Test!</t>
   </si>
   <si>
     <t xml:space="preserve">AMPT_0001_I_0001_1</t>
@@ -7438,8 +7438,8 @@
   </sheetPr>
   <dimension ref="A1:E1032"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
